--- a/biology/Botanique/Quercus_salicina/Quercus_salicina.xlsx
+++ b/biology/Botanique/Quercus_salicina/Quercus_salicina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus salicina est une espèce d'arbres à feuilles persistantes du genre Quercus (chêne), famille des Fagacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quercus stenophylla</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus salicina se trouve au Japon, en Corée du Sud et à Taïwan. 
 </t>
@@ -572,7 +588,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves de Arhopala japonica, de Acrocercops vallata et de Marumba sperchius se nourrissent de Quercus salicina.
 </t>
@@ -603,9 +621,11 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le stenophyllanin A, un ellagitanin, et d'autres gallates d'acide quinique peuvent être isolés de Quercus salicina. La friedéline peut être isolée des feuilles de l'arbre[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stenophyllanin A, un ellagitanin, et d'autres gallates d'acide quinique peuvent être isolés de Quercus salicina. La friedéline peut être isolée des feuilles de l'arbre.
 </t>
         </is>
       </c>
